--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1335.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1335.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.095080650734863</v>
+        <v>1.086879134178162</v>
       </c>
       <c r="B1">
-        <v>2.593782434246743</v>
+        <v>2.300782680511475</v>
       </c>
       <c r="C1">
-        <v>4.657808476575333</v>
+        <v>9.712230682373047</v>
       </c>
       <c r="D1">
-        <v>2.407982742573316</v>
+        <v>2.266873121261597</v>
       </c>
       <c r="E1">
-        <v>1.203590782682294</v>
+        <v>1.299554705619812</v>
       </c>
     </row>
   </sheetData>
